--- a/Self Assessment Form.xlsx
+++ b/Self Assessment Form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\21958\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB3C4ED-A47D-4BC7-8D23-821930CC4A59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EA4F1E-FCAB-499B-AE74-A69A1E39476C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="495" windowWidth="38175" windowHeight="19935" xr2:uid="{9384817B-0988-A24F-9D66-74DAD74AC274}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9384817B-0988-A24F-9D66-74DAD74AC274}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>Team Name</t>
   </si>
@@ -81,18 +81,170 @@
     <t>Correctness of results</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">here we expect </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
+    <t>NodeJS Server</t>
+  </si>
+  <si>
+    <t>It receives the data correctly</t>
+  </si>
+  <si>
+    <t>it communicates with the client correctly</t>
+  </si>
+  <si>
+    <t>it communicates with MongoDB correctly</t>
+  </si>
+  <si>
+    <t>Mongo DB</t>
+  </si>
+  <si>
+    <t>It implements MongoDB</t>
+  </si>
+  <si>
+    <t>The required organisation is used (file system and structure of information)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It syncs with the local IndexedDB </t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>The code is documented appropriately (comments and javadoc like documentation)</t>
+  </si>
+  <si>
+    <t>Swagger documentation implemented and of high quality (input, output, role of routes, etc.)</t>
+  </si>
+  <si>
+    <t>Explain your assessment</t>
+  </si>
+  <si>
+    <t>here we expect about 4 sentences explaining why you believe you have proivided excellent documentation</t>
+  </si>
+  <si>
+    <t>Client Server Communication</t>
+  </si>
+  <si>
+    <t>Non blocking organisation of routes (e.g. use of promises, correct distribution of load across servers, etc.)</t>
+  </si>
+  <si>
+    <t>Correct use of socket.io</t>
+  </si>
+  <si>
+    <t>it implements the image anotation function correctly</t>
+  </si>
+  <si>
+    <t>the chat and annotations are only available to those who are present when the discussion happens (e.g. if I join the chat late, I will not see the previous annotations)</t>
+  </si>
+  <si>
+    <t>Knowledge Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it implements the connection to the knowledge graph by allowing annotations to be inserted during the live chat </t>
+  </si>
+  <si>
+    <t>Division of work among members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage: do you think that all members shohave done an equal amount of work? If so, write 33.3% on this row </t>
+  </si>
+  <si>
+    <t>What have they done? Detail the work done by each member</t>
+  </si>
+  <si>
+    <t>Use of http and API error codes for server communication</t>
+  </si>
+  <si>
+    <t>Use of JSON for communication of data</t>
+  </si>
+  <si>
+    <t>Quality of the interface (e.g. use of appropriate elements, no confusing views, etc.)</t>
+  </si>
+  <si>
+    <t>Anything not covered above</t>
+  </si>
+  <si>
+    <t>have you implemented any function that was not required but that adds value to your solution?</t>
+  </si>
+  <si>
+    <t>list them here</t>
+  </si>
+  <si>
+    <t>Github repo URL</t>
+  </si>
+  <si>
+    <t>Hav you given access to the lecturer and lab assistants?</t>
+  </si>
+  <si>
+    <t>it impements the document selection correctly</t>
+  </si>
+  <si>
+    <t>it impements the chat function correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It uses IndexedDB correctly </t>
+  </si>
+  <si>
+    <t>It stores the documents correctly</t>
+  </si>
+  <si>
+    <t>Correct use of Axios</t>
+  </si>
+  <si>
+    <t>Have you followed the required work allocation?</t>
+  </si>
+  <si>
+    <t>If no, why?</t>
+  </si>
+  <si>
+    <t>please do not modify the form; do not introduce new columns; do not introduce new rows; we will process the form automatically!!</t>
+  </si>
+  <si>
+    <t>Insert your evaluation of the quality of your solution in the drop down cells (0 - not implemented, 1- low quality, 2 - fair, 3 good, 4 - excellent)</t>
+  </si>
+  <si>
+    <t>weiyou1233/Coursework (github.com)</t>
+  </si>
+  <si>
+    <t>1. implement MongoDB. 
+2. design MongoDB table format. 
+3. restrict for different fields. 
+4. be able to operate efficiently on MongoDB database. 
+5. use indexeddb for local storage. 
+6. work when there is no network. 
+7. implement indexeddb to synchronize with MongoDB.</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. correct use of axios. 
+2. axios encapsulates ajax to make front and back-end communication simpler. 
+3. correct use of socket.io. 
+4. scoket.io enables communication between clients. 
+5. different responses to error communication</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>chen</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wenjie Chen</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>AT LEAST</t>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
     </r>
     <r>
       <rPr>
@@ -101,150 +253,13 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> 10 sentences covering among other things: how you have implemented the solution, any special requirements, the motivations behind the design (e.g. the caching strategy) and any limitations. Here is where you have the opportunity to explain why you think that the solution is of quality - in short explain your self assessment. You can also add notes close to each element above. For example here we would expect you to focus on the way you have organised the web worker and the relation between offline (cache and IndexDB) and online. Does your solution work both offline and online? Can you write in the chat and anotate while offline? Do you use a cache first approach or a network first approach (or any other intermediate solution?)  </t>
-    </r>
-  </si>
-  <si>
-    <t>NodeJS Server</t>
-  </si>
-  <si>
-    <t>It receives the data correctly</t>
-  </si>
-  <si>
-    <t>it communicates with the client correctly</t>
-  </si>
-  <si>
-    <t>it communicates with MongoDB correctly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">here we expect about 10 sentences covering among other things: how you have implemented the solution, any special requirements, the motivations behind the design and any limitation. Here is where you have the opportunity to explain why you think that the solution is of quality - in short explain your self assessment. You can also add notes close to each item above </t>
-  </si>
-  <si>
-    <t>Mongo DB</t>
-  </si>
-  <si>
-    <t>It implements MongoDB</t>
-  </si>
-  <si>
-    <t>The required organisation is used (file system and structure of information)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It syncs with the local IndexedDB </t>
-  </si>
-  <si>
-    <t>here we expect about 10 sentences covering among other things: how you have implemented the solution, any special requirements, the motivations behind the design and any limitation. Here is where you have the opportunity to explain why you think that the solution is of quality - in short explain your self assessment. You can also add notes close to each element above. For example here I would expect you to let us know why you have chosen a specific organisation of the mongo modules, why the database design is appropriate (e.g. in line with my teaching) efficient and following the NoSQL organisation (i.e. you have not just created a SQL database in a different format), etc.</t>
-  </si>
-  <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>The code is documented appropriately (comments and javadoc like documentation)</t>
-  </si>
-  <si>
-    <t>Swagger documentation implemented and of high quality (input, output, role of routes, etc.)</t>
-  </si>
-  <si>
-    <t>Explain your assessment</t>
-  </si>
-  <si>
-    <t>here we expect about 4 sentences explaining why you believe you have proivided excellent documentation</t>
-  </si>
-  <si>
-    <t>Client Server Communication</t>
-  </si>
-  <si>
-    <t>Non blocking organisation of routes (e.g. use of promises, correct distribution of load across servers, etc.)</t>
-  </si>
-  <si>
-    <t>Correct use of socket.io</t>
-  </si>
-  <si>
-    <t>it implements the image anotation function correctly</t>
-  </si>
-  <si>
-    <t>the chat and annotations are only available to those who are present when the discussion happens (e.g. if I join the chat late, I will not see the previous annotations)</t>
-  </si>
-  <si>
-    <t>Knowledge Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it implements the connection to the knowledge graph by allowing annotations to be inserted during the live chat </t>
-  </si>
-  <si>
-    <t>here we expect about 5 sentences covering among other things: when and why you have used Ajax/socket.io, why their use is appropriate according to the learning objectives of the module</t>
-  </si>
-  <si>
-    <t>Division of work among members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage: do you think that all members shohave done an equal amount of work? If so, write 33.3% on this row </t>
-  </si>
-  <si>
-    <t>What have they done? Detail the work done by each member</t>
-  </si>
-  <si>
-    <t>Use of http and API error codes for server communication</t>
-  </si>
-  <si>
-    <t>Use of JSON for communication of data</t>
-  </si>
-  <si>
-    <t>Quality of the interface (e.g. use of appropriate elements, no confusing views, etc.)</t>
-  </si>
-  <si>
-    <t>Anything not covered above</t>
-  </si>
-  <si>
-    <t>have you implemented any function that was not required but that adds value to your solution?</t>
-  </si>
-  <si>
-    <t>list them here</t>
-  </si>
-  <si>
-    <t>Github repo URL</t>
-  </si>
-  <si>
-    <t>Hav you given access to the lecturer and lab assistants?</t>
-  </si>
-  <si>
-    <t>it impements the document selection correctly</t>
-  </si>
-  <si>
-    <t>it impements the chat function correctly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It uses IndexedDB correctly </t>
-  </si>
-  <si>
-    <t>It stores the documents correctly</t>
-  </si>
-  <si>
-    <t>Correct use of Axios</t>
-  </si>
-  <si>
-    <t>Have you followed the required work allocation?</t>
-  </si>
-  <si>
-    <t>If no, why?</t>
-  </si>
-  <si>
-    <t>please do not modify the form; do not introduce new columns; do not introduce new rows; we will process the form automatically!!</t>
-  </si>
-  <si>
-    <t>Insert your evaluation of the quality of your solution in the drop down cells (0 - not implemented, 1- low quality, 2 - fair, 3 good, 4 - excellent)</t>
-  </si>
-  <si>
-    <t>weiyou1233/Coursework (github.com)</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
+      <t>Using front-end and back-end separation for development. 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -257,13 +272,13 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>Using front-end and back-end separation for development. 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
+      <t>Dividing different routes according to different functions, with clear code organization. 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -276,13 +291,14 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>Dividing different routes according to different functions, with clear code organization. 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
+      <t>Writing external css code to avoid code coupling. 
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -295,13 +311,14 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>Writing external css code to avoid code coupling. 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
+      <t>Adding chat function correctly, so that different users can communicate with each other normally. 
+5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -314,13 +331,14 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>Adding chat function correctly, so that different users can communicate with each other normally. 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
+      <t>Using template for front-end code writing, avoiding a lot of redundant code. 
+6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -333,13 +351,14 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>Using template for front-end code writing, avoiding a lot of redundant code. 6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
+      <t>Using caching mechanism, so that it can be used without network. 
+7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -352,13 +371,22 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>Using caching mechanism, so that it can be used without network. 7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
+      <t>Using MongoDB for local storage of data correctly. The correct use of indexedDB for local storage of data, 
+8, and nodejs can be normal communication. 
+9, the server side of different responses to different processing. 
+10, the server side of the use of MongoDB for data persistence storage</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -371,18 +399,208 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>Using MongoDB for local storage of data correctly. The correct use of indexedDB for local storage of data, 8, and nodejs can be normal communication. 9, the server side of different responses to different processing. 10, the server side of the use of MongoDB for data persistence storage</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、Persistent data storage through MongoDB. 2、Building routes using express. 3、Dividing different routes according to different functions. 4、Using json for data interaction. 5、Using stock.io for chat function design. 6、Using axios for communication. 6、Designing the return data for different cases. 7、Adhering to http transcoding. 8、Designing cross-domain requests. 9、Being able to communicate with the client correctly. 10、Being able to receive data correctly</t>
-  </si>
-  <si>
-    <t>1. implement MongoDB. 2. design MongoDB table format. 3. restrict for different fields. 4. be able to operate efficiently on MongoDB database. 5. use indexeddb for local storage. 6. work when there is no network. 7. implement indexeddb to synchronize with MongoDB.</t>
-  </si>
-  <si>
-    <t>1. correct use of axios. 2. axios encapsulates ajax to make front and back-end communication simpler. 3. correct use of socket.io. 4. scoket.io enables communication between clients. 5. different responses to error communication</t>
+      <t>Persistent data storage through MongoDB. 
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Building routes using express. 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Dividing different routes according to different functions. 
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Using json for data interaction. 
+5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Using stock.io for chat function design. 
+6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Using axios for communication. 
+7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Designing the return data for different cases. 
+8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Adhering to http transcoding. 
+9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Designing cross-domain requests. 
+10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Being able to communicate with the client correctly. 
+11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Being able to receive data correctly</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -475,13 +693,6 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
@@ -554,8 +765,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -604,9 +821,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -654,40 +871,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -697,13 +914,13 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -712,16 +929,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Default 1" xfId="1" xr:uid="{4CFB9B37-B9E9-0348-B0C6-CB853B61E7A3}"/>
@@ -1040,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A704EA58-8849-E44F-8AE0-CB0AA8314588}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1054,12 +1274,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="38" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="A1" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:5" s="38" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="37"/>
@@ -1071,14 +1291,18 @@
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="24" t="s">
+        <v>61</v>
+      </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="25" t="s">
+        <v>62</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -1112,13 +1336,16 @@
     </row>
     <row r="10" spans="1:5" ht="33.75" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>58</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="11" customFormat="1" ht="117" x14ac:dyDescent="0.35">
@@ -1132,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>6</v>
@@ -1175,7 +1402,7 @@
     </row>
     <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B20" s="36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1183,7 +1410,7 @@
     </row>
     <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1191,7 +1418,7 @@
     </row>
     <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1199,7 +1426,7 @@
     </row>
     <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1223,7 +1450,7 @@
     </row>
     <row r="26" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B26" s="30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -1231,7 +1458,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -1261,23 +1488,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="B31" s="31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>63</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D31" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="32" t="s">
         <v>19</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>20</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33">
@@ -1286,7 +1511,7 @@
     </row>
     <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34">
@@ -1295,7 +1520,7 @@
     </row>
     <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35">
@@ -1304,7 +1529,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36">
@@ -1313,7 +1538,7 @@
     </row>
     <row r="37" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="B37" s="32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37">
@@ -1322,7 +1547,7 @@
     </row>
     <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38">
@@ -1331,7 +1556,7 @@
     </row>
     <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39">
@@ -1356,23 +1581,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="220.5" x14ac:dyDescent="0.25">
       <c r="B42" s="31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" t="s">
-        <v>64</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D42" s="45"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46">
@@ -1381,7 +1604,7 @@
     </row>
     <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47">
@@ -1390,7 +1613,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48">
@@ -1415,25 +1638,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="B51" s="31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D51" s="45"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -1441,31 +1662,29 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D55">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="B56" s="31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" t="s">
-        <v>66</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D56" s="45"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="B59" s="30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1473,12 +1692,12 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B62" s="30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1486,7 +1705,7 @@
     </row>
     <row r="63" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B63" s="30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1494,38 +1713,38 @@
     </row>
     <row r="64" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B64" s="31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="48" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B69" s="42"/>
       <c r="C69" s="42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D69" s="42"/>
     </row>
@@ -1548,17 +1767,21 @@
     </row>
     <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B72" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B73" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1</v>
+      </c>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
     </row>
@@ -1587,7 +1810,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10" xr:uid="{E6C66EE8-0A25-D749-854A-FC5B1F6D2E99}">
       <formula1>"No, Yes"</formula1>

--- a/Self Assessment Form.xlsx
+++ b/Self Assessment Form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Coursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\21958\Desktop\杂货铺\money\finished\2022.5.18\Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EA4F1E-FCAB-499B-AE74-A69A1E39476C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2086409A-1BD7-4B2F-A41F-46580E2E08EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9384817B-0988-A24F-9D66-74DAD74AC274}"/>
   </bookViews>
@@ -201,9 +201,6 @@
     <t>Insert your evaluation of the quality of your solution in the drop down cells (0 - not implemented, 1- low quality, 2 - fair, 3 good, 4 - excellent)</t>
   </si>
   <si>
-    <t>weiyou1233/Coursework (github.com)</t>
-  </si>
-  <si>
     <t>1. implement MongoDB. 
 2. design MongoDB table format. 
 3. restrict for different fields. 
@@ -601,6 +598,9 @@
       <t>Being able to receive data correctly</t>
     </r>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/weiyou1233/chen</t>
   </si>
 </sst>
 </file>
@@ -1260,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A704EA58-8849-E44F-8AE0-CB0AA8314588}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -1339,13 +1339,13 @@
         <v>47</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="11" customFormat="1" ht="117" x14ac:dyDescent="0.35">
@@ -1493,7 +1493,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" s="5"/>
     </row>
@@ -1586,7 +1586,7 @@
         <v>29</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42" s="45"/>
     </row>
@@ -1643,7 +1643,7 @@
         <v>29</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D51" s="45"/>
     </row>
@@ -1673,7 +1673,7 @@
         <v>29</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D56" s="45"/>
     </row>
@@ -1770,7 +1770,7 @@
         <v>40</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
@@ -1822,10 +1822,7 @@
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="https://github.com/weiyou1233/Coursework" xr:uid="{C5C5E6AE-BE15-4CE7-8442-741A960BFB2B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>